--- a/ゲーム制作仕様書３.xlsx
+++ b/ゲーム制作仕様書３.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobam\Desktop\2021Game2\05KobayashiM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E0932-2F61-4AD0-A69E-D5EF4921D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396CB9D-1E90-44EE-88EB-68EBBC48C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11064" yWindow="1140" windowWidth="15804" windowHeight="9312" xr2:uid="{6B97815B-4197-4BED-8C70-2C0A5E8B188D}"/>
+    <workbookView xWindow="108" yWindow="1368" windowWidth="15804" windowHeight="9312" xr2:uid="{6B97815B-4197-4BED-8C70-2C0A5E8B188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ゲーム制作仕様書３</t>
     <rPh sb="3" eb="8">
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933F274-FA1C-4B9F-A93D-DA7C68D66BCC}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -711,11 +715,13 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>9</v>
       </c>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -731,70 +737,84 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>14</v>
       </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>22</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作仕様書３.xlsx
+++ b/ゲーム制作仕様書３.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobam\Desktop\2021Game2\05KobayashiM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396CB9D-1E90-44EE-88EB-68EBBC48C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC2CF34-02B2-4235-9927-27CF9A940DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1368" windowWidth="15804" windowHeight="9312" xr2:uid="{6B97815B-4197-4BED-8C70-2C0A5E8B188D}"/>
+    <workbookView xWindow="8412" yWindow="1500" windowWidth="15804" windowHeight="9312" xr2:uid="{6B97815B-4197-4BED-8C70-2C0A5E8B188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ゲーム制作仕様書３</t>
     <rPh sb="3" eb="8">
@@ -246,6 +246,16 @@
   </si>
   <si>
     <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位５名のスコアだけのる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933F274-FA1C-4B9F-A93D-DA7C68D66BCC}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -709,19 +719,19 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -737,19 +747,19 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
@@ -765,13 +775,13 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -782,7 +792,7 @@
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -798,24 +808,30 @@
       <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
